--- a/biology/Microbiologie/Prix_Unesco_Carlos_J._Finlay_pour_la_microbiologie/Prix_Unesco_Carlos_J._Finlay_pour_la_microbiologie.xlsx
+++ b/biology/Microbiologie/Prix_Unesco_Carlos_J._Finlay_pour_la_microbiologie/Prix_Unesco_Carlos_J._Finlay_pour_la_microbiologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Prix Unesco Carlos J. Finlay pour la microbiologie est un prix scientifique sponsorisé par le gouvernement de Cuba et décerné depuis 1980 par l'Unesco. Il récompense des personnes ou des organisations de leur contributions exceptionnelle à la microbiologie à et à ses applications. Les lauréats reçoivent une bourse de 5000 dollars us par le gouvernement de Cuba et une médaille d'argent par l'Unesco. Le prix a lieu tous les deux ans et rend hommage à Carlos Finlay, un médecin cubain qui a découvert le rôle des moustiques dans les épidémies de fièvre jaune[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Prix Unesco Carlos J. Finlay pour la microbiologie est un prix scientifique sponsorisé par le gouvernement de Cuba et décerné depuis 1980 par l'Unesco. Il récompense des personnes ou des organisations de leur contributions exceptionnelle à la microbiologie à et à ses applications. Les lauréats reçoivent une bourse de 5000 dollars us par le gouvernement de Cuba et une médaille d'argent par l'Unesco. Le prix a lieu tous les deux ans et rend hommage à Carlos Finlay, un médecin cubain qui a découvert le rôle des moustiques dans les épidémies de fièvre jaune.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1980 : Roger Stanier (Canada)
 1983 : César Milstein, (Argentine, Royaume-uni)
@@ -525,11 +539,11 @@
 1999 : Ádám Kondorosi (hu) (Hongrie)
 2001 : Susana López Charretón and Carlos Arias Ortiz (es) (Mexique)
 2003 : Antonio Peña Díaz (en) (Mexique)
-2005 : Khatijah Yusoff (en) (Malaisie)[2]
-2015 : Yoshihiro Kawaoka (en) (Japon)[3]
-2017 : Samir Kumar Saha (en) (Bangladesh) et Shahida Hasnain (en) (Pakistan)[4]
-2020 : Kenya Honda (Japon)[5]
-2023 : Dilfuza Egamberdieva (Ouzbékistan)[6]</t>
+2005 : Khatijah Yusoff (en) (Malaisie)
+2015 : Yoshihiro Kawaoka (en) (Japon)
+2017 : Samir Kumar Saha (en) (Bangladesh) et Shahida Hasnain (en) (Pakistan)
+2020 : Kenya Honda (Japon)
+2023 : Dilfuza Egamberdieva (Ouzbékistan)</t>
         </is>
       </c>
     </row>
